--- a/data/TH19_BossTitles.xlsx
+++ b/data/TH19_BossTitles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VincentDirac\Dialogue_Converter_for_THBWiki\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EAC4F7-F996-48AE-AD36-9ABC52DC7D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92A00D5-679E-48A6-B84F-5439C995C026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name\nja\n{{孙美天称号|2|兽王园}}&lt;br&gt;孫　美天&lt;br&gt;Son Biten\nzh\n{{孙美天称号|1|兽王园}}&lt;br&gt;孙美天&lt;br&gt;Son Biten\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name\nja\n{{三头称号|2|兽王园}}&lt;br&gt;三頭　慧ノ子&lt;br&gt;Mitsugashira Enoko\nzh\n{{三头称号|1|兽王园}}&lt;br&gt;[[{{三头}}]]&lt;br&gt;Mitsugashira Enoko\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +177,10 @@
   </si>
   <si>
     <t>name\nja\n{{日白残无称号|2|兽王园}}&lt;br&gt;日白　残無&lt;br&gt;Nippaku Zanmu\nzh\n{{日白残无称号|1|兽王园}}&lt;br&gt;[[日白残无]]&lt;br&gt;Nippaku Zanmu\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name\nja\n{{孙美天称号|2|兽王园}}&lt;br&gt;孫　美天&lt;br&gt;Son Biten\nzh\n{{孙美天称号|1|兽王园}}&lt;br&gt;[[孙美天]]&lt;br&gt;Son Biten\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +509,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
